--- a/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
+++ b/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
+++ b/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
+++ b/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,6 +453,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -514,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.43</t>
+          <t>25.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0408</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -552,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.43</t>
+          <t>25.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -968,26 +1052,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.02</t>
+          <t>22.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0408</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1006,110 +1090,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.02</t>
+          <t>22.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
+++ b/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009568</t>
+          <t>013466</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商智多宝稳健一年持有期混合A</t>
+          <t>博时智选量化多因子股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.02</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009569</t>
+          <t>013465</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智多宝稳健一年持有期混合C</t>
+          <t>博时智选量化多因子股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.02</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -664,6 +681,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -985,7 +1134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
+++ b/数据整理/stocks/A股/创业板/300890-翔丰华.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -605,32 +622,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013466</t>
+          <t>016105</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时智选量化多因子股票C</t>
+          <t>申万菱信兴乐优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>54.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0910</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -643,32 +660,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013465</t>
+          <t>016106</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时智选量化多因子股票A</t>
+          <t>申万菱信兴乐优选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>54.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0783</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -737,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009568</t>
+          <t>013466</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商智多宝稳健一年持有期混合A</t>
+          <t>博时智选量化多因子股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.02</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -775,36 +792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009569</t>
+          <t>013465</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智多宝稳健一年持有期混合C</t>
+          <t>博时智选量化多因子股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.02</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -813,6 +830,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1134,7 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
